--- a/1- PM/RACI.xlsx
+++ b/1- PM/RACI.xlsx
@@ -37,7 +37,7 @@
     <t>SRS</t>
   </si>
   <si>
-    <t>C</t>
+    <t>C/A</t>
   </si>
   <si>
     <t>A</t>
@@ -164,8 +164,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC27BA0"/>
-        <bgColor rgb="FFC27BA0"/>
+        <fgColor theme="5"/>
+        <bgColor theme="5"/>
       </patternFill>
     </fill>
     <fill>
@@ -594,8 +594,8 @@
       <c r="E5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="10" t="s">
-        <v>10</v>
+      <c r="F5" s="9" t="s">
+        <v>9</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="15" t="s">
@@ -608,8 +608,8 @@
       <c r="A6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>8</v>
+      <c r="B6" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>10</v>
@@ -658,8 +658,8 @@
       <c r="A8" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>9</v>
+      <c r="B8" s="18" t="s">
+        <v>8</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>9</v>
@@ -667,7 +667,7 @@
       <c r="D8" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="10" t="s">
         <v>10</v>
       </c>
       <c r="F8" s="11" t="s">
@@ -682,8 +682,8 @@
       <c r="A9" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>8</v>
+      <c r="B9" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="C9" s="19" t="s">
         <v>11</v>
@@ -694,8 +694,8 @@
       <c r="E9" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="11" t="s">
-        <v>11</v>
+      <c r="F9" s="9" t="s">
+        <v>9</v>
       </c>
       <c r="G9" s="20"/>
       <c r="H9" s="21" t="s">

--- a/1- PM/RACI.xlsx
+++ b/1- PM/RACI.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ITI\CAR BOOKING\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE8F0F7B-B10D-457C-858D-729917386FA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="41">
   <si>
     <t>Task</t>
   </si>
@@ -31,9 +40,6 @@
     <t>Fouda</t>
   </si>
   <si>
-    <t>Milestone1</t>
-  </si>
-  <si>
     <t>SRS</t>
   </si>
   <si>
@@ -86,29 +92,82 @@
   </si>
   <si>
     <t>DEV/Tester</t>
+  </si>
+  <si>
+    <t>Milestone 1</t>
+  </si>
+  <si>
+    <t>Milestone 2</t>
+  </si>
+  <si>
+    <t>UI (wire Frame)</t>
+  </si>
+  <si>
+    <t>ERD</t>
+  </si>
+  <si>
+    <t>Use Case</t>
+  </si>
+  <si>
+    <t>Class diagram</t>
+  </si>
+  <si>
+    <t>Sequence diagram</t>
+  </si>
+  <si>
+    <t>Flow chart</t>
+  </si>
+  <si>
+    <t>Milestone 3</t>
+  </si>
+  <si>
+    <t>Front End coding</t>
+  </si>
+  <si>
+    <t>Back End coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edit wireframe </t>
+  </si>
+  <si>
+    <t>Edit ERD</t>
+  </si>
+  <si>
+    <t>Edit SIQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edit Sequence diagram </t>
+  </si>
+  <si>
+    <t>Edit Design document</t>
+  </si>
+  <si>
+    <t>RTM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
     </font>
@@ -118,7 +177,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -188,104 +247,95 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="9" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="10" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="11" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="11" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="12" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="12" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="12" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
+  <cellXfs count="24">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -475,20 +525,28 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -512,11 +570,11 @@
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
       <c r="C2" s="5" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -526,251 +584,519 @@
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="C3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>9</v>
-      </c>
       <c r="D3" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="9" t="s">
         <v>8</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>9</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="2"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>9</v>
-      </c>
       <c r="D8" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="2"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G9" s="20"/>
       <c r="H9" s="21" t="s">
         <v>1</v>
       </c>
       <c r="I9" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="6"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="3"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="J9" s="6"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="23"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="21" t="s">
+      <c r="I10" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="I10" s="22" t="s">
-        <v>24</v>
-      </c>
       <c r="J10" s="6"/>
     </row>
-    <row r="11">
-      <c r="A11" s="23"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="25"/>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="23"/>
       <c r="H11" s="21" t="s">
         <v>3</v>
       </c>
       <c r="I11" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J11" s="6"/>
     </row>
-    <row r="12">
-      <c r="A12" s="23"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="25"/>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="23"/>
       <c r="H12" s="21" t="s">
         <v>4</v>
       </c>
       <c r="I12" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J12" s="6"/>
     </row>
-    <row r="13">
-      <c r="A13" s="23"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="25"/>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="23"/>
       <c r="H13" s="21" t="s">
         <v>5</v>
       </c>
       <c r="I13" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J13" s="6"/>
     </row>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="3"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/1- PM/RACI.xlsx
+++ b/1- PM/RACI.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ITI\CAR BOOKING\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\skywa\Desktop\QA workshop\githup\Car-Purchasing-App\1- PM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE8F0F7B-B10D-457C-858D-729917386FA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,14 +19,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="44">
   <si>
     <t>Task</t>
   </si>
   <si>
-    <t>Aml</t>
-  </si>
-  <si>
     <t>Beshoy</t>
   </si>
   <si>
@@ -67,9 +63,6 @@
     <t>Schedule</t>
   </si>
   <si>
-    <t>I = Informed</t>
-  </si>
-  <si>
     <t>PMP</t>
   </si>
   <si>
@@ -143,12 +136,27 @@
   </si>
   <si>
     <t>RTM</t>
+  </si>
+  <si>
+    <t>Nader</t>
+  </si>
+  <si>
+    <t>Test Plan document</t>
+  </si>
+  <si>
+    <t>Test Cases</t>
+  </si>
+  <si>
+    <t>Edit Change Analysis dpcument</t>
+  </si>
+  <si>
+    <t>Milestone 4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -531,50 +539,50 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="1" max="1" width="25.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
       <c r="C2" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -584,516 +592,573 @@
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="C3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>8</v>
-      </c>
       <c r="D3" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>8</v>
-      </c>
       <c r="G5" s="6"/>
-      <c r="H5" s="15" t="s">
-        <v>15</v>
+      <c r="H5" s="12" t="s">
+        <v>8</v>
       </c>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="2"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B8" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>8</v>
-      </c>
       <c r="D8" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="2"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G9" s="20"/>
       <c r="H9" s="21" t="s">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="I9" s="22" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="4"/>
       <c r="C10" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="23"/>
       <c r="H10" s="21" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I10" s="22" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J10" s="6"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G11" s="23"/>
       <c r="H11" s="21" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I11" s="22" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J11" s="6"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G12" s="23"/>
       <c r="H12" s="21" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I12" s="22" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J12" s="6"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G13" s="23"/>
       <c r="H13" s="21" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I13" s="22" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J13" s="6"/>
     </row>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="7" t="s">
-        <v>31</v>
-      </c>
       <c r="B16" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="4"/>
       <c r="C17" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" s="15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="7" t="s">
+      <c r="B20" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" s="15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="7" t="s">
+      <c r="B21" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" s="15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="7" t="s">
+      <c r="B22" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="7" t="s">
+      <c r="B23" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B24" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" s="15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="7" t="s">
+      <c r="D24" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" s="15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24" s="15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="7" t="s">
+      <c r="B25" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="F25" s="12" t="s">
-        <v>9</v>
+      <c r="B28" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
